--- a/StepExcelFile.xlsx
+++ b/StepExcelFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Semester 5\Data Structure\Lab C++\Insertionsort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84C0A846-81A8-4662-83AF-8E85A699BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1E9554-A0B4-4443-A075-C351319F2F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stepFile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +604,653 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stepFile!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>stepFile!$A$2:$A$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3110</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3160</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3310</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3610</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3710</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3810</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3860</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3910</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3960</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4010</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4110</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4160</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4260</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4310</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4460</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4560</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4610</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4660</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4710</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4760</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4810</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4910</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4960</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5060</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5110</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5160</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5210</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5260</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5410</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5510</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5560</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5610</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5660</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5810</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5860</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5910</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5960</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6010</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6110</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6160</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6210</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6260</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6410</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6460</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6510</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6560</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6610</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6660</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6710</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6760</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6810</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6910</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6960</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7010</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7060</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7110</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7160</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7210</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7260</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7310</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7360</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7410</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7460</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7510</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7560</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7610</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7660</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7710</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7760</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7810</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7860</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7910</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7960</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8010</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8060</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8110</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8210</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8260</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8310</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8360</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8410</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8460</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8510</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8560</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8610</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8660</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8710</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8760</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8810</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8860</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8910</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9010</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9060</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9110</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9160</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9260</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9310</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9360</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9460</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9510</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9560</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9610</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9660</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9710</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9760</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9810</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9860</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9910</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9960</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26F3-4C39-BFD8-9FEFAA5AF682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1893,669 +2551,7 @@
         <c:smooth val="0"/>
         <c:axId val="1186315519"/>
         <c:axId val="1185181999"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>stepFile!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>n</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>stepFile!$A$2:$A$202</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="201"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>360</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>460</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>510</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>560</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>610</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>660</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>710</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>760</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>810</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>860</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>910</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>960</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1010</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1060</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1110</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1160</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>1210</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1260</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>1310</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>1360</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>1410</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>1460</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>1510</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>1560</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>1610</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>1660</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>1710</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>1760</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>1810</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>1860</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>1910</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>1960</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>2060</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>2110</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>2160</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>2210</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>2260</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>2310</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>2360</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>2410</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>2460</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>2510</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>2560</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>2610</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>2660</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>2710</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>2760</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>2810</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>2860</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>2910</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>2960</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>3010</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>3060</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>3110</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>3160</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>3210</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>3260</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>3310</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>3360</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>3410</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>3460</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>3510</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>3560</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>3610</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>3660</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>3710</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>3760</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>3810</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>3860</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>3910</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>3960</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>4010</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>4060</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>4110</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>4160</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>4210</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>4260</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>4310</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>4360</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>4410</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>4460</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>4510</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>4560</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>4610</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>4660</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>4710</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>4760</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>4810</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>4860</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>4910</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>4960</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>5010</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>5060</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>5110</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>5160</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>5210</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>5260</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>5310</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>5360</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>5410</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>5460</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>5510</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>5560</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>5610</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>5660</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>5710</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>5760</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>5810</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>5860</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>5910</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>5960</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>6010</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>6060</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>6110</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>6160</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>6210</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>6260</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>6310</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>6360</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>6410</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>6460</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>6510</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>6560</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>6610</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>6660</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>6710</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>6760</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>6810</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>6860</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>6910</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>6960</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>7010</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>7060</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>7110</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>7160</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>7210</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>7260</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>7310</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>7360</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>7410</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>7460</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>7510</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>7560</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>7610</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>7660</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>7710</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>7760</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>7810</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>7860</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>7910</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>7960</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>8010</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>8060</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>8110</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>8160</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>8210</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>8260</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>8310</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>8360</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>8410</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>8460</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>8510</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>8560</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>8610</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>8660</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>8710</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>8760</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>8810</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>8860</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>8910</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>8960</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>9010</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>9060</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>9110</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>9160</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>9210</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>9260</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>9310</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>9360</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>9410</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>9460</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>9510</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>9560</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>9610</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>9660</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>9710</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>9760</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>9810</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>9860</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>9910</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>9960</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-26F3-4C39-BFD8-9FEFAA5AF682}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1186315519"/>
@@ -3639,7 +3635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
